--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/55.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/55.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05191088301319337</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.556885022015609</v>
+        <v>-1.557090431510939</v>
       </c>
       <c r="F2" t="n">
-        <v>0.006341050170320046</v>
+        <v>0.02053712862533095</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1456304959912613</v>
+        <v>-0.1111988277128088</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.04035129678093438</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.566067062559716</v>
+        <v>-1.549672079392248</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01574738843921296</v>
+        <v>0.03354639666288113</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1084285540593196</v>
+        <v>-0.06713573643111737</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.03786328339909145</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.637348092486939</v>
+        <v>-1.636884543855716</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.04377571865189385</v>
+        <v>-0.02860217432255522</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.115528954315507</v>
+        <v>-0.07362856530648269</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.04525369717046424</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.775020461941065</v>
+        <v>-1.787625994074001</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.09268993686543403</v>
+        <v>-0.09815020919722611</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1211686648271274</v>
+        <v>-0.07830655013498834</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.05707168864232618</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.818798655761801</v>
+        <v>-1.8731818034123</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.118151270171594</v>
+        <v>-0.1378564155511573</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1190374429368862</v>
+        <v>-0.07853478290757694</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06915404092856114</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.642234634849017</v>
+        <v>-1.692518249698089</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1157398728777613</v>
+        <v>-0.170399260884049</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1148961986287441</v>
+        <v>-0.08597202325572269</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.07933740270080031</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.325933131394962</v>
+        <v>-1.331517751237337</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1296038332981778</v>
+        <v>-0.1783370393127683</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.07394651716898544</v>
+        <v>-0.03409864909413723</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.08581608427860307</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8267668084855571</v>
+        <v>-0.7818222664959372</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.06444888579105709</v>
+        <v>-0.135101882088881</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07886375290392879</v>
+        <v>-0.05297113835853247</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08535633367059414</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2972494618696714</v>
+        <v>-0.2168989337655139</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0631015254232237</v>
+        <v>-0.1647784386018842</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.008128907611797177</v>
+        <v>0.03784661690227462</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.07221181538212473</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2687363337676299</v>
+        <v>0.3900947820390342</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.09513753659905659</v>
+        <v>-0.1769739387537219</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06697856279930774</v>
+        <v>0.1095054114186097</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.04000011155305252</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9167001932805137</v>
+        <v>1.071679689982901</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1604042394637896</v>
+        <v>-0.2951985149546166</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1388167954954711</v>
+        <v>0.1623121789191265</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01502185082410581</v>
       </c>
       <c r="E13" t="n">
-        <v>1.588395539085248</v>
+        <v>1.795462476549717</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.317102565046637</v>
+        <v>-0.4656569156958746</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2418017185639325</v>
+        <v>0.2731955299382747</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.09276395666471521</v>
       </c>
       <c r="E14" t="n">
-        <v>2.248162967988765</v>
+        <v>2.473471213049988</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5563015288533386</v>
+        <v>-0.7119027631086394</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3510024431424104</v>
+        <v>0.3832383547466484</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1857146837503222</v>
       </c>
       <c r="E15" t="n">
-        <v>2.94533223925263</v>
+        <v>3.197279183922746</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8493949073733758</v>
+        <v>-1.018337527700821</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4913010635004258</v>
+        <v>0.5330251623678645</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2812129009874714</v>
       </c>
       <c r="E16" t="n">
-        <v>3.620391263919584</v>
+        <v>3.881692604227589</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.085073577415288</v>
+        <v>-1.255852291047731</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6527985733841191</v>
+        <v>0.6950247843512526</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3728911527933811</v>
       </c>
       <c r="E17" t="n">
-        <v>4.278625598198954</v>
+        <v>4.55928894771808</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.368410398411943</v>
+        <v>-1.570230343135557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8244359144472312</v>
+        <v>0.8660057594407824</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4605381389178411</v>
       </c>
       <c r="E18" t="n">
-        <v>4.932063896215722</v>
+        <v>5.258077884657763</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.583429280477224</v>
+        <v>-1.775035415122717</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9829884345549708</v>
+        <v>1.022881949184337</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5460635917818005</v>
       </c>
       <c r="E19" t="n">
-        <v>5.417370193752514</v>
+        <v>5.733496194074544</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.80583739530745</v>
+        <v>-2.023224389140728</v>
       </c>
       <c r="G19" t="n">
-        <v>1.148721629894084</v>
+        <v>1.188673383230938</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6287752714937942</v>
       </c>
       <c r="E20" t="n">
-        <v>5.839164819744823</v>
+        <v>6.187644783105189</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.956349038734025</v>
+        <v>-2.170980712095466</v>
       </c>
       <c r="G20" t="n">
-        <v>1.27605977680731</v>
+        <v>1.315819499811365</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7065814640620249</v>
       </c>
       <c r="E21" t="n">
-        <v>6.135000139574166</v>
+        <v>6.468432480134897</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.158693918834592</v>
+        <v>-2.36024077124066</v>
       </c>
       <c r="G21" t="n">
-        <v>1.392888198047611</v>
+        <v>1.427504026563255</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.7775793534991301</v>
       </c>
       <c r="E22" t="n">
-        <v>6.460990517729388</v>
+        <v>6.80300441053945</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.261957443287524</v>
+        <v>-2.447512261421177</v>
       </c>
       <c r="G22" t="n">
-        <v>1.490052398405502</v>
+        <v>1.517728376615332</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8387191928323529</v>
       </c>
       <c r="E23" t="n">
-        <v>6.584239362965474</v>
+        <v>6.925691330949232</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.352562705966956</v>
+        <v>-2.530739309469511</v>
       </c>
       <c r="G23" t="n">
-        <v>1.592089761962941</v>
+        <v>1.615382096919948</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8889631516059365</v>
       </c>
       <c r="E24" t="n">
-        <v>6.724024853089945</v>
+        <v>7.045670938470377</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.410936779099513</v>
+        <v>-2.572208417239299</v>
       </c>
       <c r="G24" t="n">
-        <v>1.593851089359676</v>
+        <v>1.620395347821291</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9279005540627014</v>
       </c>
       <c r="E25" t="n">
-        <v>6.799601381199198</v>
+        <v>7.128724057405808</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.416268768872919</v>
+        <v>-2.585194861999591</v>
       </c>
       <c r="G25" t="n">
-        <v>1.638883776420089</v>
+        <v>1.664680375799086</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9556702932701689</v>
       </c>
       <c r="E26" t="n">
-        <v>6.803848084788467</v>
+        <v>7.094799223284414</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.432041227477913</v>
+        <v>-2.625144254307763</v>
       </c>
       <c r="G26" t="n">
-        <v>1.673266650105781</v>
+        <v>1.667512036198306</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9728792516354176</v>
       </c>
       <c r="E27" t="n">
-        <v>6.742843825704217</v>
+        <v>7.01233478750035</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.34485866937775</v>
+        <v>-2.505681712067966</v>
       </c>
       <c r="G27" t="n">
-        <v>1.62915633825045</v>
+        <v>1.635395750047286</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.9780891283450931</v>
       </c>
       <c r="E28" t="n">
-        <v>6.627897931332991</v>
+        <v>6.858502750737391</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.287007957603025</v>
+        <v>-2.408165718436463</v>
       </c>
       <c r="G28" t="n">
-        <v>1.58280777120463</v>
+        <v>1.558849626159313</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.9705868550716777</v>
       </c>
       <c r="E29" t="n">
-        <v>6.479922819720392</v>
+        <v>6.677186766097401</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.20214629069722</v>
+        <v>-2.327961574110587</v>
       </c>
       <c r="G29" t="n">
-        <v>1.535423499576994</v>
+        <v>1.498440346302913</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9500423360229632</v>
       </c>
       <c r="E30" t="n">
-        <v>6.309591914527959</v>
+        <v>6.461549294517449</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.158538090941584</v>
+        <v>-2.274692831997968</v>
       </c>
       <c r="G30" t="n">
-        <v>1.465826670109563</v>
+        <v>1.43318466157203</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9176687835177481</v>
       </c>
       <c r="E31" t="n">
-        <v>6.038599338490106</v>
+        <v>6.154302336058676</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.985811528646532</v>
+        <v>-2.051213597155697</v>
       </c>
       <c r="G31" t="n">
-        <v>1.385934181569704</v>
+        <v>1.353418094561875</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8770738904516219</v>
       </c>
       <c r="E32" t="n">
-        <v>5.789081105324157</v>
+        <v>5.868351856311102</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.866207324685817</v>
+        <v>-1.91137380337154</v>
       </c>
       <c r="G32" t="n">
-        <v>1.308599474101959</v>
+        <v>1.254332016856875</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8309703220651005</v>
       </c>
       <c r="E33" t="n">
-        <v>5.442576535961023</v>
+        <v>5.481977382605422</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.802535103190961</v>
+        <v>-1.832930199432838</v>
       </c>
       <c r="G33" t="n">
-        <v>1.231678733663116</v>
+        <v>1.171352876820145</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7833989086535865</v>
       </c>
       <c r="E34" t="n">
-        <v>5.148488377356324</v>
+        <v>5.14533719107548</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.720897814455141</v>
+        <v>-1.753540610002235</v>
       </c>
       <c r="G34" t="n">
-        <v>1.117803172294375</v>
+        <v>1.046325389976989</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7372237177147141</v>
       </c>
       <c r="E35" t="n">
-        <v>4.751408999606678</v>
+        <v>4.718593848965801</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.673058651301449</v>
+        <v>-1.698024168584399</v>
       </c>
       <c r="G35" t="n">
-        <v>1.04499534381949</v>
+        <v>0.9734892291579211</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.693027076117228</v>
       </c>
       <c r="E36" t="n">
-        <v>4.29219836508193</v>
+        <v>4.238422001802692</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.597807945150306</v>
+        <v>-1.60215774699202</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9812617355789039</v>
+        <v>0.8990066443379726</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6514311171106008</v>
       </c>
       <c r="E37" t="n">
-        <v>3.930672931244224</v>
+        <v>3.838852525803149</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.563341648451184</v>
+        <v>-1.567399469745898</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9011992529739444</v>
+        <v>0.8240282434948143</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.6115771752837004</v>
       </c>
       <c r="E38" t="n">
-        <v>3.594309767079631</v>
+        <v>3.46925237387317</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.472243717786786</v>
+        <v>-1.476101638653094</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8090860799763069</v>
+        <v>0.7229651977734611</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5736595375958745</v>
       </c>
       <c r="E39" t="n">
-        <v>3.172530881278535</v>
+        <v>3.02009499947617</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.448209232814085</v>
+        <v>-1.447732305020331</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7432070836733879</v>
+        <v>0.665947929123465</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.5375418927231752</v>
       </c>
       <c r="E40" t="n">
-        <v>2.769555227900497</v>
+        <v>2.586473193806408</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.445213087416689</v>
+        <v>-1.439234175784428</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6730514774178949</v>
+        <v>0.5916746888466494</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5015920595876026</v>
       </c>
       <c r="E41" t="n">
-        <v>2.419806605128363</v>
+        <v>2.238970696320369</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.414315092065557</v>
+        <v>-1.399092753143458</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6216219766485163</v>
+        <v>0.5374733404046602</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4651491264035558</v>
       </c>
       <c r="E42" t="n">
-        <v>2.048061065136052</v>
+        <v>1.858717582977428</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.383890876469936</v>
+        <v>-1.366695504579286</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5558515876649671</v>
+        <v>0.4755514281726912</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4274087073444628</v>
       </c>
       <c r="E43" t="n">
-        <v>1.80757927574549</v>
+        <v>1.622509255501198</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.358860037393451</v>
+        <v>-1.351654177856137</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4813831690171102</v>
+        <v>0.3979711737220229</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3889045680759562</v>
       </c>
       <c r="E44" t="n">
-        <v>1.58768408244242</v>
+        <v>1.422582068770948</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.358844297202238</v>
+        <v>-1.349592999816793</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4107112844898306</v>
+        <v>0.3386668552887769</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3506760302974009</v>
       </c>
       <c r="E45" t="n">
-        <v>1.368124155212187</v>
+        <v>1.197429651602734</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.288368378055561</v>
+        <v>-1.277347096168213</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3557260745254337</v>
+        <v>0.2722353782742813</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3132461422775599</v>
       </c>
       <c r="E46" t="n">
-        <v>1.145542111269057</v>
+        <v>0.9719529864955316</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.226435447689743</v>
+        <v>-1.219663230420346</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3159569074066506</v>
+        <v>0.2438479434216234</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2773322217068218</v>
       </c>
       <c r="E47" t="n">
-        <v>1.018797369564561</v>
+        <v>0.8458110941144945</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.177587338279297</v>
+        <v>-1.159633289172181</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2418190327742668</v>
+        <v>0.163492693260102</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.243098965635936</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8453467584737109</v>
+        <v>0.6999829445833498</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.103739083165233</v>
+        <v>-1.085190054830265</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1788535458648754</v>
+        <v>0.1168151562179301</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2116149135351499</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6833738948153849</v>
+        <v>0.5292711267635624</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.041378019598421</v>
+        <v>-1.034182391185395</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1331550487161526</v>
+        <v>0.06734688327369211</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1836546381197365</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6031902127380853</v>
+        <v>0.4548672428996788</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.9824113282666936</v>
+        <v>-0.985579828757872</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1136403596502666</v>
+        <v>0.06553676128419632</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1593539499923352</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4833475448804935</v>
+        <v>0.3373021807106092</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9628588627418965</v>
+        <v>-0.9691840585808433</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1007538651041779</v>
+        <v>0.06738151169436071</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1392834676730538</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3342281213667089</v>
+        <v>0.225644412283781</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9601129863847875</v>
+        <v>-0.9822680925266553</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04594494528136665</v>
+        <v>0.002961631116887469</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1230961647758838</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2726540673605473</v>
+        <v>0.150055292021558</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9354079692664126</v>
+        <v>-0.9274261183022967</v>
       </c>
       <c r="G53" t="n">
-        <v>0.05022627729130452</v>
+        <v>0.01848145965291225</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1098429865044248</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1579773302590644</v>
+        <v>0.0817381400997443</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8995038060999831</v>
+        <v>-0.9094791522812263</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01013758429089731</v>
+        <v>-0.01668842359343032</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.09823646134321766</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1002281427176635</v>
+        <v>0.0561304230153034</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9101953309814181</v>
+        <v>-0.9307291974283463</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.001623486583461434</v>
+        <v>-0.03187298605661805</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.08704919601798947</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01980835777216873</v>
+        <v>-0.01259439985892723</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9191593698772255</v>
+        <v>-0.9496709435340787</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03693030949335716</v>
+        <v>-0.05946554125301911</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.07596302170225594</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07830497611586704</v>
+        <v>-0.1017767492527029</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.947295748680036</v>
+        <v>-0.9885216704955829</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07616431011089811</v>
+        <v>-0.09380906446067881</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.06467016709853395</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1188548567188154</v>
+        <v>-0.1321584663320488</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9453439649696231</v>
+        <v>-0.9946469659061246</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1025606107751106</v>
+        <v>-0.1169927920983166</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.05290090252533489</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1943542578911241</v>
+        <v>-0.1974897039807551</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9548203470894139</v>
+        <v>-0.9955480918530691</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1178002639075439</v>
+        <v>-0.1217856803226772</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.04011493845184592</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2752997652231333</v>
+        <v>-0.2622385545545802</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9892472933105025</v>
+        <v>-1.046582513823001</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1271578075836765</v>
+        <v>-0.1266399552927686</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.02596284030811366</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3545752382674425</v>
+        <v>-0.3263672415946128</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9709548300923065</v>
+        <v>-1.025631532308929</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1653576776385229</v>
+        <v>-0.1625842559467911</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01037468896833344</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4778004732167094</v>
+        <v>-0.4586194762045392</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.004617590030004</v>
+        <v>-1.074884164633548</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1854941042573226</v>
+        <v>-0.1878393927480606</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.007149184779942198</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5265132169827231</v>
+        <v>-0.5221657761696906</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.028284541537881</v>
+        <v>-1.121247684861021</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2199572529182011</v>
+        <v>-0.2226047530802289</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.0264931945524469</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6702856975414492</v>
+        <v>-0.6601254041134533</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.068263840209358</v>
+        <v>-1.16688164722577</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2679097454486266</v>
+        <v>-0.2774058028074337</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.04754934051585754</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8361054639322341</v>
+        <v>-0.8225830656611398</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.132809642316535</v>
+        <v>-1.241565706493245</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3294491710341196</v>
+        <v>-0.3454364832491706</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.06979139328056322</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9452329966215715</v>
+        <v>-0.9386205422929872</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.160099198832086</v>
+        <v>-1.272130009790662</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.364576555764187</v>
+        <v>-0.3739608577653817</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.09261233873124088</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.0323982405114</v>
+        <v>-1.040864889364877</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.218268649478874</v>
+        <v>-1.343588116869031</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.419656206875862</v>
+        <v>-0.4526256113906262</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1145523835046544</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.13006848801679</v>
+        <v>-1.167673378843785</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.279878118915265</v>
+        <v>-1.420886621896987</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4463468491157578</v>
+        <v>-0.4524083967518867</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1341579656602636</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.288433699849095</v>
+        <v>-1.355213822098958</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.335569276455565</v>
+        <v>-1.483558554240256</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4792249605214866</v>
+        <v>-0.490225780160257</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1501529849949943</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.34506297278569</v>
+        <v>-1.420667046229565</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.420277476497044</v>
+        <v>-1.586942491155967</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5163922740327597</v>
+        <v>-0.537008776483556</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.1619045818851571</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.403918695769365</v>
+        <v>-1.488678838441847</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.454003197199593</v>
+        <v>-1.642562030826248</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5714026683030974</v>
+        <v>-0.6049875142942902</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1688449281151762</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.47995798550028</v>
+        <v>-1.566472372483452</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.502014715447067</v>
+        <v>-1.68410826553298</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5595424342240968</v>
+        <v>-0.6084173019596044</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1704218578516905</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.52353470487349</v>
+        <v>-1.654670959926414</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.507401795889719</v>
+        <v>-1.686440961870747</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5878857965413582</v>
+        <v>-0.6449408416502656</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1666355728100282</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.571446272906762</v>
+        <v>-1.716041178456367</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.542056974883396</v>
+        <v>-1.713976065369221</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5940166010188244</v>
+        <v>-0.6482683180726952</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1583085361208798</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.566846989034321</v>
+        <v>-1.731320182066833</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.531670809711493</v>
+        <v>-1.696675234197444</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6146000490680735</v>
+        <v>-0.6687966754526987</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1463319641152453</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.483142226182672</v>
+        <v>-1.639509220740485</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.596907606212921</v>
+        <v>-1.775306933421142</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5970418657699643</v>
+        <v>-0.6531808317502746</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.130588264146916</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.434765535499056</v>
+        <v>-1.55992366592928</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.606798742371175</v>
+        <v>-1.779810202127183</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5715506261004997</v>
+        <v>-0.6274267308875527</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1114291599491996</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.261875275215388</v>
+        <v>-1.388960792059645</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.552755582850877</v>
+        <v>-1.715073156696767</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5327164263397691</v>
+        <v>-0.5851281150408394</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.08887349878189763</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.141771320183661</v>
+        <v>-1.259090835389807</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.528402359006112</v>
+        <v>-1.676040630526753</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5355795671214151</v>
+        <v>-0.6066780108305672</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.06417270912080048</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9626739154951437</v>
+        <v>-1.06646394934415</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.493553575660515</v>
+        <v>-1.629653500012461</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5231149096998349</v>
+        <v>-0.5939977127893687</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.0390863466215994</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.81750055791846</v>
+        <v>-0.9199015198929188</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.459624806491318</v>
+        <v>-1.580231660632301</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4911528774227031</v>
+        <v>-0.5557348819696704</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.01533926616470661</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.6114708990549277</v>
+        <v>-0.6818799223889501</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.452073449756878</v>
+        <v>-1.565109271924405</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4446689447324512</v>
+        <v>-0.4974946004624236</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.005853490036924558</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.4055718837784634</v>
+        <v>-0.4635052315570566</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.362598332806541</v>
+        <v>-1.437378407240415</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3606651182477548</v>
+        <v>-0.4104891195134068</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.02332339224155793</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.2156554586596864</v>
+        <v>-0.2594714289393336</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.338009006093581</v>
+        <v>-1.38157313331382</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.338831899016193</v>
+        <v>-0.3856510977792819</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.03655662345022016</v>
       </c>
       <c r="E85" t="n">
-        <v>-0.02307736720678981</v>
+        <v>-0.06079401339139689</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.215378750372166</v>
+        <v>-1.246594697585801</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3100541074214525</v>
+        <v>-0.3680661561561107</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.04635780277762828</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2394690222261649</v>
+        <v>0.2154888409131489</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.111471452098622</v>
+        <v>-1.12565100335286</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2436792950953238</v>
+        <v>-0.3086390642314032</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.05475382645936393</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4724553325610927</v>
+        <v>0.4583631393680876</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9822901287943535</v>
+        <v>-0.9798999807586584</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1815732226261626</v>
+        <v>-0.2360468763761368</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.06296273175929594</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6456855809749612</v>
+        <v>0.6253398098130285</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8330156643971208</v>
+        <v>-0.8253486172572652</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1568784366320761</v>
+        <v>-0.2156287003346243</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07177032204191107</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8288463160251157</v>
+        <v>0.8173591244778633</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.7149909886246314</v>
+        <v>-0.7167869444420354</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1017956374821585</v>
+        <v>-0.1459311336434298</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.08004740194377749</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9659543996242548</v>
+        <v>0.9611772515911072</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.534904312918377</v>
+        <v>-0.5070048239933224</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.08343155639394338</v>
+        <v>-0.129720310713154</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.08582978435015735</v>
       </c>
       <c r="E91" t="n">
-        <v>1.085446061217797</v>
+        <v>1.089609341793637</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3361041238789789</v>
+        <v>-0.3106097361712716</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1021057192490547</v>
+        <v>-0.1545583324472789</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08741565037138654</v>
       </c>
       <c r="E92" t="n">
-        <v>1.14661087025242</v>
+        <v>1.156568115213768</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1984278193770503</v>
+        <v>-0.173467024151464</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06384603646759893</v>
+        <v>-0.1153384980018296</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.08452904494982319</v>
       </c>
       <c r="E93" t="n">
-        <v>1.181946025506499</v>
+        <v>1.178969555348119</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.09806049010731198</v>
+        <v>-0.07217574565752216</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.0619713796941298</v>
+        <v>-0.1098687815553097</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.07779797946477594</v>
       </c>
       <c r="E94" t="n">
-        <v>1.165086706698247</v>
+        <v>1.177666267515682</v>
       </c>
       <c r="F94" t="n">
-        <v>0.05248342071124971</v>
+        <v>0.08830652189293206</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02678733027569553</v>
+        <v>-0.06649353662962668</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06850741705835947</v>
       </c>
       <c r="E95" t="n">
-        <v>1.177030363790677</v>
+        <v>1.197986854371674</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1318423167689878</v>
+        <v>0.1743361109867425</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.0605909649247491</v>
+        <v>-0.1009755735199609</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.05703468293522427</v>
       </c>
       <c r="E96" t="n">
-        <v>1.097953217155652</v>
+        <v>1.115520844568489</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2101324538433627</v>
+        <v>0.2661895708293654</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08979688972048336</v>
+        <v>-0.1189902223632472</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.04526000101031274</v>
       </c>
       <c r="E97" t="n">
-        <v>1.04731859604253</v>
+        <v>1.071021749990197</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2574458946105401</v>
+        <v>0.3180660930291935</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05388092141064427</v>
+        <v>-0.0871242052525148</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.03473399184224325</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9313794956057638</v>
+        <v>0.9433105605452231</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2387906199848843</v>
+        <v>0.2949343080225585</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1118048250745096</v>
+        <v>-0.1424572734427192</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02821485186458735</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8971666159851721</v>
+        <v>0.9207469964413777</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2212403067823817</v>
+        <v>0.2616327854731999</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09861297081888852</v>
+        <v>-0.1265990307956147</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.02299651167979372</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8418634541582725</v>
+        <v>0.8581592741210985</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2124053374545209</v>
+        <v>0.258350955605288</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1006544736192155</v>
+        <v>-0.1250549180376188</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.01646357873984471</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7855403279407699</v>
+        <v>0.8004856394975199</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1914693091221004</v>
+        <v>0.2223185098804726</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.0871556856349408</v>
+        <v>-0.1091289925682984</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.0004579785732588918</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7727215162168971</v>
+        <v>0.795261470033923</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1628851218792799</v>
+        <v>0.1842209510685108</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07074968433362373</v>
+        <v>-0.09031159397314868</v>
       </c>
     </row>
   </sheetData>
